--- a/R_Logit_Models/Location_Choice/Proposed/SegmentedConfusionMatrices.xlsx
+++ b/R_Logit_Models/Location_Choice/Proposed/SegmentedConfusionMatrices.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\R_Logit_Models\Location_Choice\Proposed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09818D30-587A-4E90-8186-BA83C7428F4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEEDE1-2A44-4BA2-8137-9A5056D65149}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{A25D8D46-635A-47F6-90AA-F320D2055949}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{A25D8D46-635A-47F6-90AA-F320D2055949}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hardmax" sheetId="1" r:id="rId1"/>
+    <sheet name="Softmax" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -106,8 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -191,6 +193,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5D915-47C2-4B68-88FC-9CA9AAB36509}">
   <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,11 +970,11 @@
         <v>3</v>
       </c>
       <c r="C14" s="6">
-        <f>C13/$J$11</f>
+        <f>C13/$J11</f>
         <v>3.3945735490935637E-2</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" ref="D14:I14" si="2">D13/$J$11</f>
+        <f t="shared" ref="D14:I14" si="2">D13/$J11</f>
         <v>-2.7983939652025794E-2</v>
       </c>
       <c r="E14" s="6">
@@ -1405,32 +1428,32 @@
         <v>3</v>
       </c>
       <c r="C29" s="6">
-        <f>C28/$J$11</f>
-        <v>-7.3001581700936856E-4</v>
+        <f>C28/$J26</f>
+        <v>-9.5861958779357723E-4</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" ref="D29" si="10">D28/$J$11</f>
-        <v>-2.7375593137851321E-2</v>
+        <f t="shared" ref="D29" si="10">D28/$J26</f>
+        <v>-3.594823454225915E-2</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29" si="11">E28/$J$11</f>
-        <v>-0.10305389950115586</v>
+        <f t="shared" ref="E29" si="11">E28/$J26</f>
+        <v>-0.13532513181019332</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" ref="F29" si="12">F28/$J$11</f>
-        <v>-2.7983939652025795E-3</v>
+        <f t="shared" ref="F29" si="12">F28/$J26</f>
+        <v>-3.6747084198753793E-3</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29" si="13">G28/$J$11</f>
-        <v>0.18858741939408688</v>
+        <f t="shared" ref="G29" si="13">G28/$J26</f>
+        <v>0.24764339351334078</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29" si="14">H28/$J$11</f>
-        <v>-1.3383623311838424E-2</v>
+        <f t="shared" ref="H29" si="14">H28/$J26</f>
+        <v>-1.7574692442882251E-2</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ref="I29" si="15">I28/$J$11</f>
-        <v>-4.124589366102932E-2</v>
+        <f t="shared" ref="I29" si="15">I28/$J26</f>
+        <v>-5.4162006710337114E-2</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1863,35 +1886,1429 @@
         <v>3</v>
       </c>
       <c r="C44" s="6">
-        <f>C43/$J$11</f>
-        <v>8.2491787322058641E-2</v>
+        <f>C43/$J41</f>
+        <v>4.6829672606713633E-2</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" ref="D44" si="23">D43/$J$11</f>
-        <v>-5.5359532789877111E-2</v>
+        <f t="shared" ref="D44" si="23">D43/$J41</f>
+        <v>-3.1426992678546761E-2</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" ref="E44" si="24">E43/$J$11</f>
-        <v>-0.32948047207689501</v>
+        <f t="shared" ref="E44" si="24">E43/$J41</f>
+        <v>-0.18704240917253764</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" ref="F44" si="25">F43/$J$11</f>
-        <v>1.460031634018737E-2</v>
+        <f t="shared" ref="F44" si="25">F43/$J41</f>
+        <v>8.2884376295068382E-3</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" ref="G44" si="26">G43/$J$11</f>
-        <v>0.22873828932960213</v>
+        <f t="shared" ref="G44" si="26">G43/$J41</f>
+        <v>0.12985218952894045</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" ref="H44" si="27">H43/$J$11</f>
-        <v>-3.8325830392991846E-2</v>
+        <f t="shared" ref="H44" si="27">H43/$J41</f>
+        <v>-2.1757148777455451E-2</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" ref="I44" si="28">I43/$J$11</f>
-        <v>9.7335442267915809E-2</v>
+        <f t="shared" ref="I44" si="28">I43/$J41</f>
+        <v>5.5256250863378917E-2</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11505F0-C431-49C1-9D0D-E51D93C08D4A}">
+  <dimension ref="A2:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="13" width="9.36328125" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>935.624355886638</v>
+      </c>
+      <c r="D4" s="9">
+        <v>191.25729720795101</v>
+      </c>
+      <c r="E4" s="9">
+        <v>57.1610576838303</v>
+      </c>
+      <c r="F4" s="9">
+        <v>422.96968048407501</v>
+      </c>
+      <c r="G4" s="9">
+        <v>162.333022250054</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45.373782783181802</v>
+      </c>
+      <c r="I4" s="9">
+        <v>637.28080370426903</v>
+      </c>
+      <c r="J4" s="13">
+        <f>SUM(C4:I4)</f>
+        <v>2451.9999999999991</v>
+      </c>
+      <c r="K4" s="11">
+        <f>C4/J4</f>
+        <v>0.38157600158508903</v>
+      </c>
+      <c r="M4" s="5">
+        <f>AVERAGE(K4:K10)</f>
+        <v>0.1940963695556927</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>182.708170282765</v>
+      </c>
+      <c r="D5" s="8">
+        <v>159.537916820882</v>
+      </c>
+      <c r="E5" s="9">
+        <v>17.1598076217781</v>
+      </c>
+      <c r="F5" s="9">
+        <v>110.154891993191</v>
+      </c>
+      <c r="G5" s="9">
+        <v>19.349222447001701</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8.6370366864967405</v>
+      </c>
+      <c r="I5" s="9">
+        <v>168.452954147886</v>
+      </c>
+      <c r="J5" s="13">
+        <f>SUM(C5:I5)</f>
+        <v>666.00000000000057</v>
+      </c>
+      <c r="K5" s="11">
+        <f>D5/J5</f>
+        <v>0.23954642165297577</v>
+      </c>
+      <c r="M5" s="5">
+        <f>AVERAGE(C12:I12)</f>
+        <v>0.19174440412332311</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>68.910381195322799</v>
+      </c>
+      <c r="D6" s="9">
+        <v>21.986104012400101</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5.8384088849686897</v>
+      </c>
+      <c r="F6" s="9">
+        <v>41.9064838185502</v>
+      </c>
+      <c r="G6" s="9">
+        <v>21.014749799540098</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5.0815130251140301</v>
+      </c>
+      <c r="I6" s="9">
+        <v>65.262359264104006</v>
+      </c>
+      <c r="J6" s="13">
+        <f>SUM(C6:I6)</f>
+        <v>229.99999999999994</v>
+      </c>
+      <c r="K6" s="11">
+        <f>E6/J6</f>
+        <v>2.5384386456385615E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <f>2*M4*M5/(M4+M5)</f>
+        <v>0.19291321841437969</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>553.07230511890202</v>
+      </c>
+      <c r="D7" s="9">
+        <v>191.96852135533601</v>
+      </c>
+      <c r="E7" s="9">
+        <v>46.6884763463475</v>
+      </c>
+      <c r="F7" s="8">
+        <v>330.82322679192799</v>
+      </c>
+      <c r="G7" s="9">
+        <v>164.14948304397299</v>
+      </c>
+      <c r="H7" s="9">
+        <v>38.727479391538701</v>
+      </c>
+      <c r="I7" s="9">
+        <v>535.57050795197597</v>
+      </c>
+      <c r="J7" s="13">
+        <f>SUM(C7:I7)</f>
+        <v>1861.0000000000011</v>
+      </c>
+      <c r="K7" s="11">
+        <f>F7/J7</f>
+        <v>0.17776637656739805</v>
+      </c>
+      <c r="M7" s="6">
+        <f>SUM(C4,D5,E6,F7,G8,H9,I10)/J11</f>
+        <v>0.27331108516766484</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>220.09564855084</v>
+      </c>
+      <c r="D8" s="9">
+        <v>30.697809621238299</v>
+      </c>
+      <c r="E8" s="9">
+        <v>19.8330003760897</v>
+      </c>
+      <c r="F8" s="9">
+        <v>149.191684737271</v>
+      </c>
+      <c r="G8" s="8">
+        <v>142.43512972144001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>22.423958450470298</v>
+      </c>
+      <c r="I8" s="9">
+        <v>206.322768542651</v>
+      </c>
+      <c r="J8" s="13">
+        <f>SUM(C8:I8)</f>
+        <v>791.00000000000034</v>
+      </c>
+      <c r="K8" s="11">
+        <f>G8/J8</f>
+        <v>0.18006969623443736</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.27331109999999997</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>58.537756717653899</v>
+      </c>
+      <c r="D9" s="9">
+        <v>18.884336284387299</v>
+      </c>
+      <c r="E9" s="9">
+        <v>5.28190997407388</v>
+      </c>
+      <c r="F9" s="9">
+        <v>37.9580252373325</v>
+      </c>
+      <c r="G9" s="9">
+        <v>20.189854061690301</v>
+      </c>
+      <c r="H9" s="8">
+        <v>4.7073260149797402</v>
+      </c>
+      <c r="I9" s="9">
+        <v>59.440791709882397</v>
+      </c>
+      <c r="J9" s="13">
+        <f>SUM(C9:I9)</f>
+        <v>205.00000000000003</v>
+      </c>
+      <c r="K9" s="11">
+        <f>H9/J9</f>
+        <v>2.2962565926730436E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>590.50835620967803</v>
+      </c>
+      <c r="D10" s="9">
+        <v>197.75389767489199</v>
+      </c>
+      <c r="E10" s="9">
+        <v>45.937184971168698</v>
+      </c>
+      <c r="F10" s="9">
+        <v>326.49385523380198</v>
+      </c>
+      <c r="G10" s="9">
+        <v>146.077232345634</v>
+      </c>
+      <c r="H10" s="9">
+        <v>39.852028692624003</v>
+      </c>
+      <c r="I10" s="8">
+        <v>667.37744487220095</v>
+      </c>
+      <c r="J10" s="13">
+        <f>SUM(C10:I10)</f>
+        <v>2013.9999999999995</v>
+      </c>
+      <c r="K10" s="11">
+        <f>I10/J10</f>
+        <v>0.33136913846683275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <f>SUM(C4:C10)</f>
+        <v>2609.4569739617996</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(D4:D10)</f>
+        <v>812.08588297708661</v>
+      </c>
+      <c r="E11" s="10">
+        <f>SUM(E4:E10)</f>
+        <v>197.89984585825687</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(F4:F10)</f>
+        <v>1419.4978482961499</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(G4:G10)</f>
+        <v>675.54869366933315</v>
+      </c>
+      <c r="H11" s="10">
+        <f>SUM(H4:H10)</f>
+        <v>164.80312504440531</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(I4:I10)</f>
+        <v>2339.7076301929692</v>
+      </c>
+      <c r="J11" s="13">
+        <f>SUM(J4:J10)</f>
+        <v>8219</v>
+      </c>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <f>C4/C11</f>
+        <v>0.35855136345326644</v>
+      </c>
+      <c r="D12" s="11">
+        <f>IFERROR(D5/D11, 0)</f>
+        <v>0.19645448857702091</v>
+      </c>
+      <c r="E12" s="11">
+        <f>IFERROR(E6/E11, 0)</f>
+        <v>2.9501836444836709E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <f>IFERROR(F7/F11, 0)</f>
+        <v>0.23305651867596797</v>
+      </c>
+      <c r="G12" s="11">
+        <f>IFERROR(G8/G11, 0)</f>
+        <v>0.21084361653900111</v>
+      </c>
+      <c r="H12" s="11">
+        <f>IFERROR(H9/H11, 0)</f>
+        <v>2.8563329813748234E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <f>IFERROR(I10/I11, 0)</f>
+        <v>0.28523967535942024</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <f>C11-J4</f>
+        <v>157.45697396180049</v>
+      </c>
+      <c r="D13" s="9">
+        <f>D11-J5</f>
+        <v>146.08588297708604</v>
+      </c>
+      <c r="E13" s="9">
+        <f>E11-J6</f>
+        <v>-32.100154141743076</v>
+      </c>
+      <c r="F13" s="9">
+        <f>F11-J7</f>
+        <v>-441.50215170385127</v>
+      </c>
+      <c r="G13" s="9">
+        <f>G11-J8</f>
+        <v>-115.45130633066719</v>
+      </c>
+      <c r="H13" s="9">
+        <f>H11-J9</f>
+        <v>-40.196874955594723</v>
+      </c>
+      <c r="I13" s="9">
+        <f>I11-J10</f>
+        <v>325.70763019296965</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11">
+        <f>C13/$J11</f>
+        <v>1.9157680248424441E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:I14" si="0">D13/$J11</f>
+        <v>1.7774167535842079E-2</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>-3.9056033753185394E-3</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.3717258997913526E-2</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.4046879952630148E-2</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>-4.8907257519886513E-3</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9628620293584334E-2</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2165.3338026289898</v>
+      </c>
+      <c r="D19" s="9">
+        <v>69.299173711242403</v>
+      </c>
+      <c r="E19" s="9">
+        <v>108.817245423625</v>
+      </c>
+      <c r="F19" s="9">
+        <v>763.53672906119698</v>
+      </c>
+      <c r="G19" s="9">
+        <v>48.328881001195498</v>
+      </c>
+      <c r="H19" s="9">
+        <v>31.076319182523601</v>
+      </c>
+      <c r="I19" s="9">
+        <v>273.60784899122802</v>
+      </c>
+      <c r="J19" s="13">
+        <f>SUM(C19:I19)</f>
+        <v>3460.0000000000014</v>
+      </c>
+      <c r="K19" s="11">
+        <f>C19/J19</f>
+        <v>0.62581901810086382</v>
+      </c>
+      <c r="M19" s="5">
+        <f>AVERAGE(K19:K25)</f>
+        <v>0.32363750864157187</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="9">
+        <v>77.423429667299203</v>
+      </c>
+      <c r="D20" s="8">
+        <v>119.090423373131</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5.0946737971748099</v>
+      </c>
+      <c r="F20" s="9">
+        <v>30.484040973681001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1.5289413527897899</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1.48161191538223</v>
+      </c>
+      <c r="I20" s="9">
+        <v>28.896878920542399</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" ref="J20:J25" si="1">SUM(C20:I20)</f>
+        <v>264.0000000000004</v>
+      </c>
+      <c r="K20" s="11">
+        <f>D20/J20</f>
+        <v>0.45110008853458644</v>
+      </c>
+      <c r="M20" s="5">
+        <f>AVERAGE(C27:I27)</f>
+        <v>0.3390631052549406</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
+        <v>114.585126816792</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8.1519667191754497</v>
+      </c>
+      <c r="E21" s="8">
+        <v>9.9300739235965505</v>
+      </c>
+      <c r="F21" s="9">
+        <v>63.1925310897294</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5.4627906320086099</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2.62040329234333</v>
+      </c>
+      <c r="I21" s="9">
+        <v>21.057107526354201</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="1"/>
+        <v>224.99999999999955</v>
+      </c>
+      <c r="K21" s="11">
+        <f>E21/J21</f>
+        <v>4.4133661882651422E-2</v>
+      </c>
+      <c r="M21" s="6">
+        <f>2*M19*M20/(M19+M20)</f>
+        <v>0.33117077713804577</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9">
+        <v>416.11040990448402</v>
+      </c>
+      <c r="D22" s="9">
+        <v>31.589112254669899</v>
+      </c>
+      <c r="E22" s="9">
+        <v>33.4953597714265</v>
+      </c>
+      <c r="F22" s="8">
+        <v>234.00724808731201</v>
+      </c>
+      <c r="G22" s="9">
+        <v>24.889705332831301</v>
+      </c>
+      <c r="H22" s="9">
+        <v>11.703651893477099</v>
+      </c>
+      <c r="I22" s="9">
+        <v>95.2045127557992</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="1"/>
+        <v>847</v>
+      </c>
+      <c r="K22" s="11">
+        <f>F22/J22</f>
+        <v>0.27627774272409916</v>
+      </c>
+      <c r="M22" s="6">
+        <f>SUM(C19,D20,E21,F22,G23,H24,I25)/J26</f>
+        <v>0.49092478152663566</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="9">
+        <v>76.701904824253702</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2.4086792361811602</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5.2766905230134</v>
+      </c>
+      <c r="F23" s="9">
+        <v>39.620433636181097</v>
+      </c>
+      <c r="G23" s="8">
+        <v>124.498640020078</v>
+      </c>
+      <c r="H23" s="9">
+        <v>7.3600338028930201</v>
+      </c>
+      <c r="I23" s="9">
+        <v>27.133617957400102</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="1"/>
+        <v>283.00000000000045</v>
+      </c>
+      <c r="K23" s="11">
+        <f>G23/J23</f>
+        <v>0.43992452303914414</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.49092479999999999</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43.056589247934198</v>
+      </c>
+      <c r="D24" s="9">
+        <v>3.9745079814549702</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3.4375811502669502</v>
+      </c>
+      <c r="F24" s="9">
+        <v>25.448317254408099</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4.6432767059575104</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4.3935871721303199</v>
+      </c>
+      <c r="I24" s="9">
+        <v>25.0461404878479</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="1"/>
+        <v>109.99999999999994</v>
+      </c>
+      <c r="K24" s="11">
+        <f>H24/J24</f>
+        <v>3.994170156482111E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9">
+        <v>413.56267350629702</v>
+      </c>
+      <c r="D25" s="9">
+        <v>43.913264167513901</v>
+      </c>
+      <c r="E25" s="9">
+        <v>19.463436610601001</v>
+      </c>
+      <c r="F25" s="9">
+        <v>136.74282313877799</v>
+      </c>
+      <c r="G25" s="9">
+        <v>26.742982540467199</v>
+      </c>
+      <c r="H25" s="9">
+        <v>14.130387666367399</v>
+      </c>
+      <c r="I25" s="8">
+        <v>415.44443236997603</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="1"/>
+        <v>1070.0000000000005</v>
+      </c>
+      <c r="K25" s="11">
+        <f>I25/J25</f>
+        <v>0.38826582464483722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <f>SUM(C19:C25)</f>
+        <v>3306.7739365960506</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26:I26" si="2">SUM(D19:D25)</f>
+        <v>278.42712744336876</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="2"/>
+        <v>185.51506119970421</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="2"/>
+        <v>1293.0321232412866</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="2"/>
+        <v>236.0952175853279</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="2"/>
+        <v>72.765994925116999</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="2"/>
+        <v>886.3905390091478</v>
+      </c>
+      <c r="J26" s="13">
+        <f>SUM(J19:J25)</f>
+        <v>6259.0000000000018</v>
+      </c>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <f>C19/C26</f>
+        <v>0.65481760898900632</v>
+      </c>
+      <c r="D27" s="11">
+        <f>IFERROR(D20/D26, 0)</f>
+        <v>0.42772564752101477</v>
+      </c>
+      <c r="E27" s="11">
+        <f>IFERROR(E21/E26, 0)</f>
+        <v>5.3527049822154192E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f>IFERROR(F22/F26, 0)</f>
+        <v>0.18097558744381251</v>
+      </c>
+      <c r="G27" s="11">
+        <f>IFERROR(G23/G26, 0)</f>
+        <v>0.52732385388146441</v>
+      </c>
+      <c r="H27" s="11">
+        <f>IFERROR(H24/H26, 0)</f>
+        <v>6.0379675652778901E-2</v>
+      </c>
+      <c r="I27" s="11">
+        <f>IFERROR(I25/I26, 0)</f>
+        <v>0.46869231347435281</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <f>C26-J19</f>
+        <v>-153.22606340395077</v>
+      </c>
+      <c r="D28" s="9">
+        <f>D26-J20</f>
+        <v>14.427127443368363</v>
+      </c>
+      <c r="E28" s="9">
+        <f>E26-J21</f>
+        <v>-39.484938800295339</v>
+      </c>
+      <c r="F28" s="9">
+        <f>F26-J22</f>
+        <v>446.03212324128663</v>
+      </c>
+      <c r="G28" s="9">
+        <f>G26-J23</f>
+        <v>-46.904782414672553</v>
+      </c>
+      <c r="H28" s="9">
+        <f>H26-J24</f>
+        <v>-37.234005074882944</v>
+      </c>
+      <c r="I28" s="9">
+        <f>I26-J25</f>
+        <v>-183.60946099085265</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="11">
+        <f>C28/$J26</f>
+        <v>-2.448091762325463E-2</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" ref="D29:I29" si="3">D28/$J26</f>
+        <v>2.3050211604678638E-3</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="3"/>
+        <v>-6.3085059594656222E-3</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="3"/>
+        <v>7.1262521687376013E-2</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="3"/>
+        <v>-7.49397386398347E-3</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="3"/>
+        <v>-5.9488744327980403E-3</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="3"/>
+        <v>-2.9335270968342004E-2</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3008.4786880435399</v>
+      </c>
+      <c r="D34" s="9">
+        <v>296.25097819358098</v>
+      </c>
+      <c r="E34" s="9">
+        <v>145.41193104259199</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1116.46868383129</v>
+      </c>
+      <c r="G34" s="9">
+        <v>236.60339783358199</v>
+      </c>
+      <c r="H34" s="9">
+        <v>79.002834745691004</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1029.7834863097301</v>
+      </c>
+      <c r="J34" s="14">
+        <f>SUM(C34:I34)</f>
+        <v>5912.0000000000055</v>
+      </c>
+      <c r="K34" s="11">
+        <f>C34/J34</f>
+        <v>0.50887663870831146</v>
+      </c>
+      <c r="M34" s="5">
+        <f>AVERAGE(K34:K40)</f>
+        <v>0.23354176815541844</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="9">
+        <v>263.50146814103499</v>
+      </c>
+      <c r="D35" s="8">
+        <v>274.35808575530598</v>
+      </c>
+      <c r="E35" s="9">
+        <v>21.560523835178198</v>
+      </c>
+      <c r="F35" s="9">
+        <v>138.987646890588</v>
+      </c>
+      <c r="G35" s="9">
+        <v>18.690778338452901</v>
+      </c>
+      <c r="H35" s="9">
+        <v>9.4740601016630297</v>
+      </c>
+      <c r="I35" s="9">
+        <v>203.427436937777</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" ref="J35:J40" si="4">SUM(C35:I35)</f>
+        <v>929.99999999999989</v>
+      </c>
+      <c r="K35" s="11">
+        <f>D35/J35</f>
+        <v>0.29500869436054411</v>
+      </c>
+      <c r="M35" s="5">
+        <f>AVERAGE(C42:I42)</f>
+        <v>0.22972777265271219</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="9">
+        <v>175.69994831111899</v>
+      </c>
+      <c r="D36" s="9">
+        <v>33.901516702217599</v>
+      </c>
+      <c r="E36" s="8">
+        <v>13.6726912698192</v>
+      </c>
+      <c r="F36" s="9">
+        <v>98.189734657912098</v>
+      </c>
+      <c r="G36" s="9">
+        <v>29.8503149270704</v>
+      </c>
+      <c r="H36" s="9">
+        <v>8.0496634132112295</v>
+      </c>
+      <c r="I36" s="9">
+        <v>95.636130718649994</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="4"/>
+        <v>454.99999999999955</v>
+      </c>
+      <c r="K36" s="11">
+        <f>E36/J36</f>
+        <v>3.0049870922679592E-2</v>
+      </c>
+      <c r="M36" s="6">
+        <f>2*M34*M35/(M34+M35)</f>
+        <v>0.23161907051403011</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9">
+        <v>934.14216299955797</v>
+      </c>
+      <c r="D37" s="9">
+        <v>249.62584012506801</v>
+      </c>
+      <c r="E37" s="9">
+        <v>71.941464543054096</v>
+      </c>
+      <c r="F37" s="8">
+        <v>527.553251950054</v>
+      </c>
+      <c r="G37" s="9">
+        <v>210.53837779052299</v>
+      </c>
+      <c r="H37" s="9">
+        <v>50.413934902024103</v>
+      </c>
+      <c r="I37" s="9">
+        <v>663.784967689719</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="4"/>
+        <v>2708</v>
+      </c>
+      <c r="K37" s="11">
+        <f>F37/J37</f>
+        <v>0.19481286999632719</v>
+      </c>
+      <c r="M37" s="6">
+        <f>SUM(C34,D35,E36,F37,G38,H39,I40)/J41</f>
+        <v>0.35556269225121601</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9">
+        <v>300.71908959015298</v>
+      </c>
+      <c r="D38" s="9">
+        <v>30.336972439480899</v>
+      </c>
+      <c r="E38" s="9">
+        <v>24.372472085360101</v>
+      </c>
+      <c r="F38" s="9">
+        <v>190.59227047939601</v>
+      </c>
+      <c r="G38" s="8">
+        <v>254.44927072523299</v>
+      </c>
+      <c r="H38" s="9">
+        <v>30.4611613875113</v>
+      </c>
+      <c r="I38" s="9">
+        <v>243.06876329286601</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="4"/>
+        <v>1074.0000000000002</v>
+      </c>
+      <c r="K38" s="11">
+        <f>G38/J38</f>
+        <v>0.23691738428792639</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0.35556270000000001</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9">
+        <v>98.976929057307203</v>
+      </c>
+      <c r="D39" s="9">
+        <v>25.269130577839199</v>
+      </c>
+      <c r="E39" s="9">
+        <v>8.0649062132838605</v>
+      </c>
+      <c r="F39" s="9">
+        <v>60.623174762547897</v>
+      </c>
+      <c r="G39" s="9">
+        <v>27.749571244289999</v>
+      </c>
+      <c r="H39" s="8">
+        <v>7.8565421771245498</v>
+      </c>
+      <c r="I39" s="9">
+        <v>86.459745967607404</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="4"/>
+        <v>315.00000000000011</v>
+      </c>
+      <c r="K39" s="11">
+        <f>H39/J39</f>
+        <v>2.4941403736903324E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1007.1306748532</v>
+      </c>
+      <c r="D40" s="9">
+        <v>262.903655657294</v>
+      </c>
+      <c r="E40" s="9">
+        <v>61.453497540889003</v>
+      </c>
+      <c r="F40" s="9">
+        <v>452.81498523339798</v>
+      </c>
+      <c r="G40" s="9">
+        <v>185.187911450694</v>
+      </c>
+      <c r="H40" s="9">
+        <v>53.041146772492397</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1061.46812849203</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="4"/>
+        <v>3083.9999999999973</v>
+      </c>
+      <c r="K40" s="11">
+        <f>I40/J40</f>
+        <v>0.34418551507523704</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <f>SUM(C34:C40)</f>
+        <v>5788.6489609959126</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" ref="D41:I41" si="5">SUM(D34:D40)</f>
+        <v>1172.6461794507866</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="5"/>
+        <v>346.47748653017641</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="5"/>
+        <v>2585.2297478051864</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="5"/>
+        <v>963.06962230984527</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="5"/>
+        <v>238.29934349971762</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="5"/>
+        <v>3383.6286594083795</v>
+      </c>
+      <c r="J41" s="14">
+        <f>SUM(J34:J40)</f>
+        <v>14478.000000000004</v>
+      </c>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11">
+        <f>C34/C41</f>
+        <v>0.5197203541473594</v>
+      </c>
+      <c r="D42" s="11">
+        <f>IFERROR(D35/D41, 0)</f>
+        <v>0.23396493380791353</v>
+      </c>
+      <c r="E42" s="11">
+        <f>IFERROR(E36/E41, 0)</f>
+        <v>3.9461990465081427E-2</v>
+      </c>
+      <c r="F42" s="11">
+        <f>IFERROR(F37/F41, 0)</f>
+        <v>0.2040643592307172</v>
+      </c>
+      <c r="G42" s="11">
+        <f>IFERROR(G38/G41, 0)</f>
+        <v>0.26420651719338506</v>
+      </c>
+      <c r="H42" s="11">
+        <f>IFERROR(H39/H41, 0)</f>
+        <v>3.2969214525485506E-2</v>
+      </c>
+      <c r="I42" s="11">
+        <f>IFERROR(I40/I41, 0)</f>
+        <v>0.31370703919904308</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9">
+        <f>C41-J34</f>
+        <v>-123.35103900409285</v>
+      </c>
+      <c r="D43" s="9">
+        <f>D41-J35</f>
+        <v>242.64617945078669</v>
+      </c>
+      <c r="E43" s="9">
+        <f>E41-J36</f>
+        <v>-108.52251346982314</v>
+      </c>
+      <c r="F43" s="9">
+        <f>F41-J37</f>
+        <v>-122.77025219481357</v>
+      </c>
+      <c r="G43" s="9">
+        <f>G41-J38</f>
+        <v>-110.93037769015496</v>
+      </c>
+      <c r="H43" s="9">
+        <f>H41-J39</f>
+        <v>-76.700656500282491</v>
+      </c>
+      <c r="I43" s="9">
+        <f>I41-J40</f>
+        <v>299.62865940838219</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11">
+        <f>C43/$J41</f>
+        <v>-8.5198949443357382E-3</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" ref="D44:I44" si="6">D43/$J41</f>
+        <v>1.6759647703466406E-2</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" si="6"/>
+        <v>-7.495684035766205E-3</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="6"/>
+        <v>-8.479779817296142E-3</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="6"/>
+        <v>-7.6619959725207163E-3</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="6"/>
+        <v>-5.2977383962068293E-3</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0695445462659352E-2</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
